--- a/biology/Botanique/Conservatory_Garden/Conservatory_Garden.xlsx
+++ b/biology/Botanique/Conservatory_Garden/Conservatory_Garden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Conservatory Garden est l'unique jardin à la française de Central Park, à New York. D'une surface de 2,42 hectares, il tire son nom d'une ancienne serre (en anglais conservatory) qui fut construite au même endroit en 1898 et détruite en 1934. L'ancien jardinier en chef du parc utilisait ces serres afin de conserver le bois issu de la taille des arbres du parc. Une fois que la serre ferma ses portes en 1937, le jardin fut ouvert au public. 
@@ -513,7 +525,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Central Park
  Portail du jardinage et de l’horticulture   Portail de New York                    </t>
